--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F2-F2rl2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F2-F2rl2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H2">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I2">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J2">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,22 +564,22 @@
         <v>0.790535</v>
       </c>
       <c r="O2">
-        <v>0.05023160637981146</v>
+        <v>0.05741109988842188</v>
       </c>
       <c r="P2">
-        <v>0.05185565834321259</v>
+        <v>0.05868788750479208</v>
       </c>
       <c r="Q2">
-        <v>0.2488229115061111</v>
+        <v>0.2362813372427778</v>
       </c>
       <c r="R2">
-        <v>2.239406203555</v>
+        <v>2.126532035185</v>
       </c>
       <c r="S2">
-        <v>0.02071148824159041</v>
+        <v>0.01921693864211956</v>
       </c>
       <c r="T2">
-        <v>0.02284432407751663</v>
+        <v>0.02140559035131567</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H3">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I3">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J3">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.682986999999999</v>
+        <v>2.338082</v>
       </c>
       <c r="N3">
-        <v>8.048960999999998</v>
+        <v>7.014246</v>
       </c>
       <c r="O3">
-        <v>0.5114412906682861</v>
+        <v>0.5093962667661314</v>
       </c>
       <c r="P3">
-        <v>0.5279768405369056</v>
+        <v>0.5207249270164355</v>
       </c>
       <c r="Q3">
-        <v>2.533431044316999</v>
+        <v>2.096473179087333</v>
       </c>
       <c r="R3">
-        <v>22.800879398853</v>
+        <v>18.868258611786</v>
       </c>
       <c r="S3">
-        <v>0.2108773945600382</v>
+        <v>0.1705077384337601</v>
       </c>
       <c r="T3">
-        <v>0.2325932103844768</v>
+        <v>0.1899271714716674</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H4">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I4">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J4">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4928875</v>
+        <v>0.2995679999999999</v>
       </c>
       <c r="N4">
-        <v>0.985775</v>
+        <v>0.5991359999999999</v>
       </c>
       <c r="O4">
-        <v>0.09395610905094394</v>
+        <v>0.06526666765434078</v>
       </c>
       <c r="P4">
-        <v>0.06466255333828407</v>
+        <v>0.04447877218348473</v>
       </c>
       <c r="Q4">
-        <v>0.4654128006791666</v>
+        <v>0.268611741296</v>
       </c>
       <c r="R4">
-        <v>2.792476804075</v>
+        <v>1.611670447776</v>
       </c>
       <c r="S4">
-        <v>0.03873996847961278</v>
+        <v>0.02184639468894788</v>
       </c>
       <c r="T4">
-        <v>0.02848623219403817</v>
+        <v>0.01622301325143841</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H5">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I5">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J5">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.806547333333333</v>
+        <v>1.688746333333333</v>
       </c>
       <c r="N5">
-        <v>5.419642</v>
+        <v>5.066238999999999</v>
       </c>
       <c r="O5">
-        <v>0.3443709939009584</v>
+        <v>0.3679259656911061</v>
       </c>
       <c r="P5">
-        <v>0.3555049477815977</v>
+        <v>0.3761084132952877</v>
       </c>
       <c r="Q5">
-        <v>1.705846169696222</v>
+        <v>1.514237479316555</v>
       </c>
       <c r="R5">
-        <v>15.352615527266</v>
+        <v>13.628137313849</v>
       </c>
       <c r="S5">
-        <v>0.1419909954102343</v>
+        <v>0.1231540716215135</v>
       </c>
       <c r="T5">
-        <v>0.1566130003505479</v>
+        <v>0.1371803103668518</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H6">
         <v>2.048396</v>
       </c>
       <c r="I6">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J6">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -812,10 +812,10 @@
         <v>0.790535</v>
       </c>
       <c r="O6">
-        <v>0.05023160637981146</v>
+        <v>0.05741109988842188</v>
       </c>
       <c r="P6">
-        <v>0.05185565834321259</v>
+        <v>0.05868788750479208</v>
       </c>
       <c r="Q6">
         <v>0.1799254146511111</v>
@@ -824,10 +824,10 @@
         <v>1.61932873186</v>
       </c>
       <c r="S6">
-        <v>0.01497660760961815</v>
+        <v>0.01463346912564508</v>
       </c>
       <c r="T6">
-        <v>0.01651887463735667</v>
+        <v>0.01630010124690886</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H7">
         <v>2.048396</v>
       </c>
       <c r="I7">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J7">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.682986999999999</v>
+        <v>2.338082</v>
       </c>
       <c r="N7">
-        <v>8.048960999999998</v>
+        <v>7.014246</v>
       </c>
       <c r="O7">
-        <v>0.5114412906682861</v>
+        <v>0.5093962667661314</v>
       </c>
       <c r="P7">
-        <v>0.5279768405369056</v>
+        <v>0.5207249270164355</v>
       </c>
       <c r="Q7">
-        <v>1.831939946284</v>
+        <v>1.596439272157333</v>
       </c>
       <c r="R7">
-        <v>16.487459516556</v>
+        <v>14.367953449416</v>
       </c>
       <c r="S7">
-        <v>0.1524867723277524</v>
+        <v>0.1298396051796309</v>
       </c>
       <c r="T7">
-        <v>0.1681896155388098</v>
+        <v>0.1446272713677769</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H8">
         <v>2.048396</v>
       </c>
       <c r="I8">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J8">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4928875</v>
+        <v>0.2995679999999999</v>
       </c>
       <c r="N8">
-        <v>0.985775</v>
+        <v>0.5991359999999999</v>
       </c>
       <c r="O8">
-        <v>0.09395610905094394</v>
+        <v>0.06526666765434078</v>
       </c>
       <c r="P8">
-        <v>0.06466255333828407</v>
+        <v>0.04447877218348473</v>
       </c>
       <c r="Q8">
-        <v>0.3365429278166667</v>
+        <v>0.204544630976</v>
       </c>
       <c r="R8">
-        <v>2.0192575669</v>
+        <v>1.227267785856</v>
       </c>
       <c r="S8">
-        <v>0.02801311523152929</v>
+        <v>0.01663576848222246</v>
       </c>
       <c r="T8">
-        <v>0.02059857393491784</v>
+        <v>0.01235363071928249</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H9">
         <v>2.048396</v>
       </c>
       <c r="I9">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J9">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.806547333333333</v>
+        <v>1.688746333333333</v>
       </c>
       <c r="N9">
-        <v>5.419642</v>
+        <v>5.066238999999999</v>
       </c>
       <c r="O9">
-        <v>0.3443709939009584</v>
+        <v>0.3679259656911061</v>
       </c>
       <c r="P9">
-        <v>0.3555049477815977</v>
+        <v>0.3761084132952877</v>
       </c>
       <c r="Q9">
-        <v>1.233508110470222</v>
+        <v>1.153073744738222</v>
       </c>
       <c r="R9">
-        <v>11.101572994232</v>
+        <v>10.377663702644</v>
       </c>
       <c r="S9">
-        <v>0.102674583185572</v>
+        <v>0.09378035379792039</v>
       </c>
       <c r="T9">
-        <v>0.1132478470622464</v>
+        <v>0.1044611669831675</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H10">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I10">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J10">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1060,22 +1060,22 @@
         <v>0.790535</v>
       </c>
       <c r="O10">
-        <v>0.05023160637981146</v>
+        <v>0.05741109988842188</v>
       </c>
       <c r="P10">
-        <v>0.05185565834321259</v>
+        <v>0.05868788750479208</v>
       </c>
       <c r="Q10">
-        <v>0.01928879048833333</v>
+        <v>0.05833331413833333</v>
       </c>
       <c r="R10">
-        <v>0.173599114395</v>
+        <v>0.5249998272449999</v>
       </c>
       <c r="S10">
-        <v>0.001605557763854898</v>
+        <v>0.004744292256294573</v>
       </c>
       <c r="T10">
-        <v>0.001770895526909647</v>
+        <v>0.005284628235351418</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H11">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I11">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J11">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.682986999999999</v>
+        <v>2.338082</v>
       </c>
       <c r="N11">
-        <v>8.048960999999998</v>
+        <v>7.014246</v>
       </c>
       <c r="O11">
-        <v>0.5114412906682861</v>
+        <v>0.5093962667661314</v>
       </c>
       <c r="P11">
-        <v>0.5279768405369056</v>
+        <v>0.5207249270164355</v>
       </c>
       <c r="Q11">
-        <v>0.1963919654129999</v>
+        <v>0.517578874258</v>
       </c>
       <c r="R11">
-        <v>1.767527688717</v>
+        <v>4.658209868322</v>
       </c>
       <c r="S11">
-        <v>0.01634724816044233</v>
+        <v>0.04209507862592446</v>
       </c>
       <c r="T11">
-        <v>0.0180306615534672</v>
+        <v>0.04688936285085511</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H12">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I12">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J12">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4928875</v>
+        <v>0.2995679999999999</v>
       </c>
       <c r="N12">
-        <v>0.985775</v>
+        <v>0.5991359999999999</v>
       </c>
       <c r="O12">
-        <v>0.09395610905094394</v>
+        <v>0.06526666765434078</v>
       </c>
       <c r="P12">
-        <v>0.06466255333828407</v>
+        <v>0.04447877218348473</v>
       </c>
       <c r="Q12">
-        <v>0.0360788721125</v>
+        <v>0.066315068592</v>
       </c>
       <c r="R12">
-        <v>0.216473232675</v>
+        <v>0.3978904115519999</v>
       </c>
       <c r="S12">
-        <v>0.003003128333338932</v>
+        <v>0.005393454341554716</v>
       </c>
       <c r="T12">
-        <v>0.002208257114535545</v>
+        <v>0.004005149705472252</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H13">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I13">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J13">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.806547333333333</v>
+        <v>1.688746333333333</v>
       </c>
       <c r="N13">
-        <v>5.419642</v>
+        <v>5.066238999999999</v>
       </c>
       <c r="O13">
-        <v>0.3443709939009584</v>
+        <v>0.3679259656911061</v>
       </c>
       <c r="P13">
-        <v>0.3555049477815977</v>
+        <v>0.3761084132952877</v>
       </c>
       <c r="Q13">
-        <v>0.1322374582526667</v>
+        <v>0.3738360870636667</v>
       </c>
       <c r="R13">
-        <v>1.190137124274</v>
+        <v>3.364524783573</v>
       </c>
       <c r="S13">
-        <v>0.01100716387056119</v>
+        <v>0.03040436977013992</v>
       </c>
       <c r="T13">
-        <v>0.01214066394941609</v>
+        <v>0.0338671781343502</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H14">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I14">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J14">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1308,22 +1308,22 @@
         <v>0.790535</v>
       </c>
       <c r="O14">
-        <v>0.05023160637981146</v>
+        <v>0.05741109988842188</v>
       </c>
       <c r="P14">
-        <v>0.05185565834321259</v>
+        <v>0.05868788750479208</v>
       </c>
       <c r="Q14">
-        <v>0.1159590994516666</v>
+        <v>0.1742461672925</v>
       </c>
       <c r="R14">
-        <v>0.69575459671</v>
+        <v>1.045477003755</v>
       </c>
       <c r="S14">
-        <v>0.009652188017017163</v>
+        <v>0.01417157167196802</v>
       </c>
       <c r="T14">
-        <v>0.007097436570655981</v>
+        <v>0.01052373164091721</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H15">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I15">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J15">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.682986999999999</v>
+        <v>2.338082</v>
       </c>
       <c r="N15">
-        <v>8.048960999999998</v>
+        <v>7.014246</v>
       </c>
       <c r="O15">
-        <v>0.5114412906682861</v>
+        <v>0.5093962667661314</v>
       </c>
       <c r="P15">
-        <v>0.5279768405369056</v>
+        <v>0.5207249270164355</v>
       </c>
       <c r="Q15">
-        <v>1.180656478311</v>
+        <v>1.546048539213</v>
       </c>
       <c r="R15">
-        <v>7.083938869865999</v>
+        <v>9.276291235278</v>
       </c>
       <c r="S15">
-        <v>0.0982753260938965</v>
+        <v>0.1257412890179626</v>
       </c>
       <c r="T15">
-        <v>0.07226370768806407</v>
+        <v>0.09337479373762954</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H16">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I16">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J16">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4928875</v>
+        <v>0.2995679999999999</v>
       </c>
       <c r="N16">
-        <v>0.985775</v>
+        <v>0.5991359999999999</v>
       </c>
       <c r="O16">
-        <v>0.09395610905094394</v>
+        <v>0.06526666765434078</v>
       </c>
       <c r="P16">
-        <v>0.06466255333828407</v>
+        <v>0.04447877218348473</v>
       </c>
       <c r="Q16">
-        <v>0.2168966230375</v>
+        <v>0.198088291512</v>
       </c>
       <c r="R16">
-        <v>0.8675864921499999</v>
+        <v>0.792353166048</v>
       </c>
       <c r="S16">
-        <v>0.01805401211042224</v>
+        <v>0.01611066954389666</v>
       </c>
       <c r="T16">
-        <v>0.008850304585424301</v>
+        <v>0.007975796745764034</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H17">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I17">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J17">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.806547333333333</v>
+        <v>1.688746333333333</v>
       </c>
       <c r="N17">
-        <v>5.419642</v>
+        <v>5.066238999999999</v>
       </c>
       <c r="O17">
-        <v>0.3443709939009584</v>
+        <v>0.3679259656911061</v>
       </c>
       <c r="P17">
-        <v>0.3555049477815977</v>
+        <v>0.3761084132952877</v>
       </c>
       <c r="Q17">
-        <v>0.7949765736753333</v>
+        <v>1.1166776023045</v>
       </c>
       <c r="R17">
-        <v>4.769859442052</v>
+        <v>6.700065613827</v>
       </c>
       <c r="S17">
-        <v>0.06617215375527072</v>
+        <v>0.09082022819460189</v>
       </c>
       <c r="T17">
-        <v>0.0486576373350492</v>
+        <v>0.06744260490016096</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H18">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I18">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J18">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.790535</v>
       </c>
       <c r="O18">
-        <v>0.05023160637981146</v>
+        <v>0.05741109988842188</v>
       </c>
       <c r="P18">
-        <v>0.05185565834321259</v>
+        <v>0.05868788750479208</v>
       </c>
       <c r="Q18">
-        <v>0.03947439901555555</v>
+        <v>0.05711035649333333</v>
       </c>
       <c r="R18">
-        <v>0.35526959114</v>
+        <v>0.51399320844</v>
       </c>
       <c r="S18">
-        <v>0.003285764747730827</v>
+        <v>0.004644828192394646</v>
       </c>
       <c r="T18">
-        <v>0.003624127530773657</v>
+        <v>0.005173836030298923</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H19">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I19">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J19">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.682986999999999</v>
+        <v>2.338082</v>
       </c>
       <c r="N19">
-        <v>8.048960999999998</v>
+        <v>7.014246</v>
       </c>
       <c r="O19">
-        <v>0.5114412906682861</v>
+        <v>0.5093962667661314</v>
       </c>
       <c r="P19">
-        <v>0.5279768405369056</v>
+        <v>0.5207249270164355</v>
       </c>
       <c r="Q19">
-        <v>0.4019150299159999</v>
+        <v>0.506727835696</v>
       </c>
       <c r="R19">
-        <v>3.617235269243999</v>
+        <v>4.560550521264</v>
       </c>
       <c r="S19">
-        <v>0.03345454952615667</v>
+        <v>0.04121255550885334</v>
       </c>
       <c r="T19">
-        <v>0.03689964537208784</v>
+        <v>0.04590632758850664</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H20">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I20">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J20">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4928875</v>
+        <v>0.2995679999999999</v>
       </c>
       <c r="N20">
-        <v>0.985775</v>
+        <v>0.5991359999999999</v>
       </c>
       <c r="O20">
-        <v>0.09395610905094394</v>
+        <v>0.06526666765434078</v>
       </c>
       <c r="P20">
-        <v>0.06466255333828407</v>
+        <v>0.04447877218348473</v>
       </c>
       <c r="Q20">
-        <v>0.07383520468333332</v>
+        <v>0.06492477350399999</v>
       </c>
       <c r="R20">
-        <v>0.4430112280999999</v>
+        <v>0.3895486410239999</v>
       </c>
       <c r="S20">
-        <v>0.0061458848960407</v>
+        <v>0.005280380597719059</v>
       </c>
       <c r="T20">
-        <v>0.004519185509368215</v>
+        <v>0.003921181761527542</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H21">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I21">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J21">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.806547333333333</v>
+        <v>1.688746333333333</v>
       </c>
       <c r="N21">
-        <v>5.419642</v>
+        <v>5.066238999999999</v>
       </c>
       <c r="O21">
-        <v>0.3443709939009584</v>
+        <v>0.3679259656911061</v>
       </c>
       <c r="P21">
-        <v>0.3555049477815977</v>
+        <v>0.3761084132952877</v>
       </c>
       <c r="Q21">
-        <v>0.2706231992631111</v>
+        <v>0.3659986153306666</v>
       </c>
       <c r="R21">
-        <v>2.435608793368</v>
+        <v>3.293987537976</v>
       </c>
       <c r="S21">
-        <v>0.0225260976793202</v>
+        <v>0.02976694230693044</v>
       </c>
       <c r="T21">
-        <v>0.02484579908433808</v>
+        <v>0.03315715291075737</v>
       </c>
     </row>
   </sheetData>
